--- a/StructureDefinition-profile-Claim.xlsx
+++ b/StructureDefinition-profile-Claim.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T14:42:26.7514155-06:00</t>
+    <t>2026-02-20T11:59:20.7505831-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Claim|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Claim</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -456,7 +456,7 @@
     <t>traceNumber</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Claim.traceNumber|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Claim.traceNumber}
 </t>
   </si>
   <si>
@@ -479,7 +479,7 @@
     <t>diagnosisRelatedGroup</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Claim.diagnosisRelatedGroup|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Claim.diagnosisRelatedGroup}
 </t>
   </si>
   <si>
@@ -498,7 +498,7 @@
     <t>event</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Claim.event|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Claim.event}
 </t>
   </si>
   <si>
@@ -517,7 +517,7 @@
     <t>patientPaid</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Claim.patientPaid|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Claim.patientPaid}
 </t>
   </si>
   <si>
@@ -536,7 +536,7 @@
     <t>encounter</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {alternate-reference|5.2.0}
+    <t xml:space="preserve">Extension {alternate-reference}
 </t>
   </si>
   <si>
@@ -1029,7 +1029,7 @@
     <t>related</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Claim.related|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Claim.related}
 </t>
   </si>
   <si>
@@ -1166,7 +1166,7 @@
     <t>payee</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Claim.payee|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Claim.payee}
 </t>
   </si>
   <si>
@@ -1315,7 +1315,7 @@
     <t>careTeam</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Claim.careTeam|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Claim.careTeam}
 </t>
   </si>
   <si>
@@ -1454,7 +1454,7 @@
     <t>supportingInfo</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Claim.supportingInfo|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Claim.supportingInfo}
 </t>
   </si>
   <si>
@@ -1598,7 +1598,7 @@
     <t>diagnosis</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Claim.diagnosis|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Claim.diagnosis}
 </t>
   </si>
   <si>
@@ -1729,7 +1729,7 @@
     <t>procedure</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Claim.procedure|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Claim.procedure}
 </t>
   </si>
   <si>
@@ -1849,7 +1849,7 @@
     <t>insurance</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Claim.insurance|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Claim.insurance}
 </t>
   </si>
   <si>
@@ -1990,7 +1990,7 @@
     <t>accident</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Claim.accident|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Claim.accident}
 </t>
   </si>
   <si>
@@ -2037,7 +2037,7 @@
     <t>Type of accident: work place, auto, etc.</t>
   </si>
   <si>
-    <t>http://terminology.hl7.org/ValueSet/v3-ActIncidentCode|3.0.0</t>
+    <t>http://terminology.hl7.org/ValueSet/v3-ActIncidentCode</t>
   </si>
   <si>
     <t>Claim.accident.location[x]</t>
@@ -2080,7 +2080,7 @@
     <t>item</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Claim.item|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Claim.item}
 </t>
   </si>
   <si>
@@ -2860,7 +2860,7 @@
     <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="91.6796875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="88.609375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2875,7 +2875,7 @@
     <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="108.796875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="51.5625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="50.4453125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>
